--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H2">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I2">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J2">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1605563333333333</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N2">
-        <v>0.481669</v>
+        <v>0.168642</v>
       </c>
       <c r="O2">
-        <v>0.01905578313479183</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P2">
-        <v>0.02595755287029415</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q2">
-        <v>0.7217551469303334</v>
+        <v>1.4256603008955</v>
       </c>
       <c r="R2">
-        <v>4.330530881582001</v>
+        <v>5.702641203582</v>
       </c>
       <c r="S2">
-        <v>0.002427909490001309</v>
+        <v>0.001707589896315661</v>
       </c>
       <c r="T2">
-        <v>0.002520239197291789</v>
+        <v>0.001239691727385368</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H3">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I3">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J3">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5664446666666666</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N3">
-        <v>1.699334</v>
+        <v>0.481669</v>
       </c>
       <c r="O3">
-        <v>0.06722903109309158</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P3">
-        <v>0.09157855736883302</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q3">
-        <v>2.546360801408666</v>
+        <v>2.714611905583167</v>
       </c>
       <c r="R3">
-        <v>15.278164808452</v>
+        <v>16.287671433499</v>
       </c>
       <c r="S3">
-        <v>0.008565693755009941</v>
+        <v>0.00325143644631218</v>
       </c>
       <c r="T3">
-        <v>0.008891434067981633</v>
+        <v>0.003540761344374372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H4">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I4">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J4">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7207635</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N4">
-        <v>13.441527</v>
+        <v>1.727297</v>
       </c>
       <c r="O4">
-        <v>0.797660292168841</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P4">
-        <v>0.7243753443962271</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q4">
-        <v>30.21211027132651</v>
+        <v>9.734778448847834</v>
       </c>
       <c r="R4">
-        <v>120.848441085306</v>
+        <v>58.408670693087</v>
       </c>
       <c r="S4">
-        <v>0.1016304068667762</v>
+        <v>0.01165986687830375</v>
       </c>
       <c r="T4">
-        <v>0.07033017116911387</v>
+        <v>0.01269740516382374</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H5">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I5">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J5">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08863199999999999</v>
+        <v>9.042617</v>
       </c>
       <c r="N5">
-        <v>0.265896</v>
+        <v>18.085234</v>
       </c>
       <c r="O5">
-        <v>0.01051937432637061</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P5">
-        <v>0.01432936202661938</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q5">
-        <v>0.398430886248</v>
+        <v>152.8883679404035</v>
       </c>
       <c r="R5">
-        <v>2.390585317488</v>
+        <v>611.5534717616141</v>
       </c>
       <c r="S5">
-        <v>0.001340280196054527</v>
+        <v>0.1831226079559331</v>
       </c>
       <c r="T5">
-        <v>0.001391249014578678</v>
+        <v>0.1329450254244411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.495339</v>
+        <v>16.9075355</v>
       </c>
       <c r="H6">
-        <v>8.990678000000001</v>
+        <v>33.815071</v>
       </c>
       <c r="I6">
-        <v>0.1274106381683396</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J6">
-        <v>0.09709078547908703</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8891996666666667</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N6">
-        <v>2.667599</v>
+        <v>0.218831</v>
       </c>
       <c r="O6">
-        <v>0.105535519276905</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P6">
-        <v>0.1437591833380263</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q6">
-        <v>3.997253940353667</v>
+        <v>1.233297633666834</v>
       </c>
       <c r="R6">
-        <v>23.983523642122</v>
+        <v>7.399785802001</v>
       </c>
       <c r="S6">
-        <v>0.01344634786049756</v>
+        <v>0.00147718680044375</v>
       </c>
       <c r="T6">
-        <v>0.01395769203012106</v>
+        <v>0.001608632371505719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,25 +844,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4630963333333333</v>
+        <v>16.9075355</v>
       </c>
       <c r="H7">
-        <v>1.389289</v>
+        <v>33.815071</v>
       </c>
       <c r="I7">
-        <v>0.01312546158663854</v>
+        <v>0.2093814122600371</v>
       </c>
       <c r="J7">
-        <v>0.01500300202804008</v>
+        <v>0.160920589855456</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1605563333333333</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N7">
-        <v>0.481669</v>
+        <v>1.209229</v>
       </c>
       <c r="O7">
-        <v>0.01905578313479183</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P7">
-        <v>0.02595755287029415</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q7">
-        <v>0.0743530492601111</v>
+        <v>6.815027415043168</v>
       </c>
       <c r="R7">
-        <v>0.669177443341</v>
+        <v>40.89016449025901</v>
       </c>
       <c r="S7">
-        <v>0.0002501159495390246</v>
+        <v>0.008162724282728661</v>
       </c>
       <c r="T7">
-        <v>0.0003894412183559807</v>
+        <v>0.00888907382392572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.389289</v>
       </c>
       <c r="I8">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J8">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.5664446666666666</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N8">
-        <v>1.699334</v>
+        <v>0.168642</v>
       </c>
       <c r="O8">
-        <v>0.06722903109309158</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P8">
-        <v>0.09157855736883302</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q8">
-        <v>0.2623184481695555</v>
+        <v>0.039048745923</v>
       </c>
       <c r="R8">
-        <v>2.360866033526</v>
+        <v>0.234292475538</v>
       </c>
       <c r="S8">
-        <v>0.0008824120651193015</v>
+        <v>4.677077979938763E-05</v>
       </c>
       <c r="T8">
-        <v>0.001373953281929587</v>
+        <v>5.093261759667724E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>1.389289</v>
       </c>
       <c r="I9">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J9">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7207635</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N9">
-        <v>13.441527</v>
+        <v>0.481669</v>
       </c>
       <c r="O9">
-        <v>0.797660292168841</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P9">
-        <v>0.7243753443962271</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q9">
-        <v>3.1123609340505</v>
+        <v>0.0743530492601111</v>
       </c>
       <c r="R9">
-        <v>18.674165604303</v>
+        <v>0.669177443341</v>
       </c>
       <c r="S9">
-        <v>0.010469659524049</v>
+        <v>8.90566396476609E-05</v>
       </c>
       <c r="T9">
-        <v>0.01086780476103883</v>
+        <v>0.0001454718455970276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.389289</v>
       </c>
       <c r="I10">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J10">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08863199999999999</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N10">
-        <v>0.265896</v>
+        <v>1.727297</v>
       </c>
       <c r="O10">
-        <v>0.01051937432637061</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P10">
-        <v>0.01432936202661938</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q10">
-        <v>0.041045154216</v>
+        <v>0.2666349690925555</v>
       </c>
       <c r="R10">
-        <v>0.3694063879439999</v>
+        <v>2.399714721833</v>
       </c>
       <c r="S10">
-        <v>0.0001380716436362491</v>
+        <v>0.000319363020027209</v>
       </c>
       <c r="T10">
-        <v>0.0002149834475458911</v>
+        <v>0.0005216716925610928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1.389289</v>
       </c>
       <c r="I11">
-        <v>0.01312546158663854</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J11">
-        <v>0.01500300202804008</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8891996666666667</v>
+        <v>9.042617</v>
       </c>
       <c r="N11">
-        <v>2.667599</v>
+        <v>18.085234</v>
       </c>
       <c r="O11">
-        <v>0.105535519276905</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P11">
-        <v>0.1437591833380263</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q11">
-        <v>0.4117851052345556</v>
+        <v>4.187602776437666</v>
       </c>
       <c r="R11">
-        <v>3.706065947111</v>
+        <v>25.125616658626</v>
       </c>
       <c r="S11">
-        <v>0.001385202404294967</v>
+        <v>0.005015716707785715</v>
       </c>
       <c r="T11">
-        <v>0.002156819319169795</v>
+        <v>0.005462033819976195</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.798299666666668</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H12">
-        <v>20.394899</v>
+        <v>1.389289</v>
       </c>
       <c r="I12">
-        <v>0.1926830655017586</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J12">
-        <v>0.2202455436260365</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1605563333333333</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N12">
-        <v>0.481669</v>
+        <v>0.218831</v>
       </c>
       <c r="O12">
-        <v>0.01905578313479183</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P12">
-        <v>0.02595755287029415</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q12">
-        <v>1.091510067381222</v>
+        <v>0.03377994457322223</v>
       </c>
       <c r="R12">
-        <v>9.823590606431001</v>
+        <v>0.304019501159</v>
       </c>
       <c r="S12">
-        <v>0.003671726709948401</v>
+        <v>4.046005350300161E-05</v>
       </c>
       <c r="T12">
-        <v>0.005717035343119519</v>
+        <v>6.609050913354015E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.798299666666668</v>
+        <v>0.4630963333333333</v>
       </c>
       <c r="H13">
-        <v>20.394899</v>
+        <v>1.389289</v>
       </c>
       <c r="I13">
-        <v>0.1926830655017586</v>
+        <v>0.005734943705176796</v>
       </c>
       <c r="J13">
-        <v>0.2202455436260365</v>
+        <v>0.006611407243820265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5664446666666666</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N13">
-        <v>1.699334</v>
+        <v>1.209229</v>
       </c>
       <c r="O13">
-        <v>0.06722903109309158</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P13">
-        <v>0.09157855736883302</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q13">
-        <v>3.850860588585111</v>
+        <v>0.1866631720201111</v>
       </c>
       <c r="R13">
-        <v>34.657745297266</v>
+        <v>1.679968548181</v>
       </c>
       <c r="S13">
-        <v>0.01295389580172993</v>
+        <v>0.0002235765044138223</v>
       </c>
       <c r="T13">
-        <v>0.0201697691521868</v>
+        <v>0.0003652067589557313</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H14">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I14">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J14">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>6.7207635</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N14">
-        <v>13.441527</v>
+        <v>0.168642</v>
       </c>
       <c r="O14">
-        <v>0.797660292168841</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P14">
-        <v>0.7243753443962271</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q14">
-        <v>45.68976426179551</v>
+        <v>0.62954367777</v>
       </c>
       <c r="R14">
-        <v>274.138585570773</v>
+        <v>3.77726206662</v>
       </c>
       <c r="S14">
-        <v>0.1536956303241207</v>
+        <v>0.0007540382675832475</v>
       </c>
       <c r="T14">
-        <v>0.1595404415158445</v>
+        <v>0.0008211353948086485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H15">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I15">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J15">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08863199999999999</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N15">
-        <v>0.265896</v>
+        <v>0.481669</v>
       </c>
       <c r="O15">
-        <v>0.01051937432637061</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P15">
-        <v>0.01432936202661938</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q15">
-        <v>0.602546896056</v>
+        <v>1.198719471732222</v>
       </c>
       <c r="R15">
-        <v>5.422922064504</v>
+        <v>10.78847524559</v>
       </c>
       <c r="S15">
-        <v>0.002026905292365587</v>
+        <v>0.001435770679144995</v>
       </c>
       <c r="T15">
-        <v>0.003155978129367071</v>
+        <v>0.002345296334733263</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.798299666666668</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H16">
-        <v>20.394899</v>
+        <v>22.39811</v>
       </c>
       <c r="I16">
-        <v>0.1926830655017586</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J16">
-        <v>0.2202455436260365</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8891996666666667</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N16">
-        <v>2.667599</v>
+        <v>1.727297</v>
       </c>
       <c r="O16">
-        <v>0.105535519276905</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P16">
-        <v>0.1437591833380263</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q16">
-        <v>6.045045797500112</v>
+        <v>4.298687578741111</v>
       </c>
       <c r="R16">
-        <v>54.40541217750101</v>
+        <v>38.68818820867</v>
       </c>
       <c r="S16">
-        <v>0.020334907373594</v>
+        <v>0.00514876894044481</v>
       </c>
       <c r="T16">
-        <v>0.03166231948551865</v>
+        <v>0.008410388302123992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7.466036666666668</v>
+      </c>
+      <c r="H17">
+        <v>22.39811</v>
+      </c>
+      <c r="I17">
+        <v>0.09245873245405202</v>
+      </c>
+      <c r="J17">
+        <v>0.106589073045193</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>8.750795</v>
-      </c>
-      <c r="H17">
-        <v>17.50159</v>
-      </c>
-      <c r="I17">
-        <v>0.2480223127622444</v>
-      </c>
-      <c r="J17">
-        <v>0.1890005537105138</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1605563333333333</v>
+        <v>9.042617</v>
       </c>
       <c r="N17">
-        <v>0.481669</v>
+        <v>18.085234</v>
       </c>
       <c r="O17">
-        <v>0.01905578313479183</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P17">
-        <v>0.02595755287029415</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q17">
-        <v>1.404995558951667</v>
+        <v>67.51251008462334</v>
       </c>
       <c r="R17">
-        <v>8.42997335371</v>
+        <v>405.07506050774</v>
       </c>
       <c r="S17">
-        <v>0.00472625940458684</v>
+        <v>0.08086335855953823</v>
       </c>
       <c r="T17">
-        <v>0.00490599186545553</v>
+        <v>0.08805888071059875</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.750795</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H18">
-        <v>17.50159</v>
+        <v>22.39811</v>
       </c>
       <c r="I18">
-        <v>0.2480223127622444</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J18">
-        <v>0.1890005537105138</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.5664446666666666</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N18">
-        <v>1.699334</v>
+        <v>0.218831</v>
       </c>
       <c r="O18">
-        <v>0.06722903109309158</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P18">
-        <v>0.09157855736883302</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q18">
-        <v>4.956841156843333</v>
+        <v>0.5446000899344445</v>
       </c>
       <c r="R18">
-        <v>29.74104694106</v>
+        <v>4.90140080941</v>
       </c>
       <c r="S18">
-        <v>0.01667429977647341</v>
+        <v>0.0006522967712017555</v>
       </c>
       <c r="T18">
-        <v>0.01730839805071949</v>
+        <v>0.001065510842977262</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.750795</v>
+        <v>7.466036666666668</v>
       </c>
       <c r="H19">
-        <v>17.50159</v>
+        <v>22.39811</v>
       </c>
       <c r="I19">
-        <v>0.2480223127622444</v>
+        <v>0.09245873245405202</v>
       </c>
       <c r="J19">
-        <v>0.1890005537105138</v>
+        <v>0.106589073045193</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.7207635</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N19">
-        <v>13.441527</v>
+        <v>1.209229</v>
       </c>
       <c r="O19">
-        <v>0.797660292168841</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P19">
-        <v>0.7243753443962271</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q19">
-        <v>58.81202363198251</v>
+        <v>3.009382684132223</v>
       </c>
       <c r="R19">
-        <v>235.24809452793</v>
+        <v>27.08444415719001</v>
       </c>
       <c r="S19">
-        <v>0.1978375504623235</v>
+        <v>0.003604499236138973</v>
       </c>
       <c r="T19">
-        <v>0.136907341185131</v>
+        <v>0.005887861459951065</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H20">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I20">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J20">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.08863199999999999</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N20">
-        <v>0.265896</v>
+        <v>0.168642</v>
       </c>
       <c r="O20">
-        <v>0.01051937432637061</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P20">
-        <v>0.01432936202661938</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q20">
-        <v>0.7756004624399999</v>
+        <v>1.2822802822485</v>
       </c>
       <c r="R20">
-        <v>4.653602774639999</v>
+        <v>5.129121128993999</v>
       </c>
       <c r="S20">
-        <v>0.002609039549238216</v>
+        <v>0.001535855948879949</v>
       </c>
       <c r="T20">
-        <v>0.002708257357349473</v>
+        <v>0.001115014745865017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.750795</v>
+        <v>15.2071285</v>
       </c>
       <c r="H21">
-        <v>17.50159</v>
+        <v>30.414257</v>
       </c>
       <c r="I21">
-        <v>0.2480223127622444</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J21">
-        <v>0.1890005537105138</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.8891996666666667</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N21">
-        <v>2.667599</v>
+        <v>0.481669</v>
       </c>
       <c r="O21">
-        <v>0.105535519276905</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P21">
-        <v>0.1437591833380263</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q21">
-        <v>7.781203997068334</v>
+        <v>2.441600792488833</v>
       </c>
       <c r="R21">
-        <v>46.68722398241</v>
+        <v>14.649604754933</v>
       </c>
       <c r="S21">
-        <v>0.0261751635696224</v>
+        <v>0.002924436376233111</v>
       </c>
       <c r="T21">
-        <v>0.02717056525185824</v>
+        <v>0.003184663592853839</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,25 +1774,25 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H22">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I22">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J22">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,33 +1801,33 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1605563333333333</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N22">
-        <v>0.481669</v>
+        <v>1.727297</v>
       </c>
       <c r="O22">
-        <v>0.01905578313479183</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P22">
-        <v>0.02595755287029415</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q22">
-        <v>1.008169716806444</v>
+        <v>8.755742478888166</v>
       </c>
       <c r="R22">
-        <v>9.073527451257998</v>
+        <v>52.534454873329</v>
       </c>
       <c r="S22">
-        <v>0.003391378410499321</v>
+        <v>0.01048722292561556</v>
       </c>
       <c r="T22">
-        <v>0.005280521064431177</v>
+        <v>0.01142041499441662</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H23">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I23">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J23">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.5664446666666666</v>
+        <v>9.042617</v>
       </c>
       <c r="N23">
-        <v>1.699334</v>
+        <v>18.085234</v>
       </c>
       <c r="O23">
-        <v>0.06722903109309158</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P23">
-        <v>0.09157855736883302</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q23">
-        <v>3.556834833754221</v>
+        <v>137.5122386952845</v>
       </c>
       <c r="R23">
-        <v>32.011513503788</v>
+        <v>550.048954781138</v>
       </c>
       <c r="S23">
-        <v>0.01196482364409471</v>
+        <v>0.1647057923043247</v>
       </c>
       <c r="T23">
-        <v>0.01862974154970341</v>
+        <v>0.1195746171915618</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H24">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I24">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J24">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>6.7207635</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N24">
-        <v>13.441527</v>
+        <v>0.218831</v>
       </c>
       <c r="O24">
-        <v>0.797660292168841</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P24">
-        <v>0.7243753443962271</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q24">
-        <v>42.20120187006899</v>
+        <v>1.109263712261167</v>
       </c>
       <c r="R24">
-        <v>253.207211220414</v>
+        <v>6.655582273567</v>
       </c>
       <c r="S24">
-        <v>0.1419604680972111</v>
+        <v>0.001328624712504786</v>
       </c>
       <c r="T24">
-        <v>0.1473590089078193</v>
+        <v>0.001446850676891804</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.279227333333332</v>
+        <v>15.2071285</v>
       </c>
       <c r="H25">
-        <v>18.837682</v>
+        <v>30.414257</v>
       </c>
       <c r="I25">
-        <v>0.1779710855497396</v>
+        <v>0.1883237235698756</v>
       </c>
       <c r="J25">
-        <v>0.2034290786507156</v>
+        <v>0.1447366523777351</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.08863199999999999</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N25">
-        <v>0.265896</v>
+        <v>1.209229</v>
       </c>
       <c r="O25">
-        <v>0.01051937432637061</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P25">
-        <v>0.01432936202661938</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q25">
-        <v>0.5565404770079998</v>
+        <v>6.129633596308834</v>
       </c>
       <c r="R25">
-        <v>5.008864293071999</v>
+        <v>36.777801577853</v>
       </c>
       <c r="S25">
-        <v>0.001872144468168239</v>
+        <v>0.007341791302317542</v>
       </c>
       <c r="T25">
-        <v>0.002915008914727733</v>
+        <v>0.007995091176145974</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.279227333333332</v>
+        <v>35.389713</v>
       </c>
       <c r="H26">
-        <v>18.837682</v>
+        <v>106.169139</v>
       </c>
       <c r="I26">
-        <v>0.1779710855497396</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J26">
-        <v>0.2034290786507156</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
-        <v>0.8891996666666667</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N26">
-        <v>2.667599</v>
+        <v>0.168642</v>
       </c>
       <c r="O26">
-        <v>0.105535519276905</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P26">
-        <v>0.1437591833380263</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q26">
-        <v>5.583486851724222</v>
+        <v>2.984095989873</v>
       </c>
       <c r="R26">
-        <v>50.251381665518</v>
+        <v>17.904575939238</v>
       </c>
       <c r="S26">
-        <v>0.01878227092976625</v>
+        <v>0.003574212004600611</v>
       </c>
       <c r="T26">
-        <v>0.029244798214034</v>
+        <v>0.003892258671345898</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H27">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I27">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J27">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,27 +2117,27 @@
         <v>0.481669</v>
       </c>
       <c r="O27">
-        <v>0.01905578313479183</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P27">
-        <v>0.02595755287029415</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q27">
-        <v>1.364011467636</v>
+        <v>5.682042556999</v>
       </c>
       <c r="R27">
-        <v>12.276103208724</v>
+        <v>51.138383012991</v>
       </c>
       <c r="S27">
-        <v>0.004588393170216929</v>
+        <v>0.006805687480161018</v>
       </c>
       <c r="T27">
-        <v>0.007144324181640152</v>
+        <v>0.01111692426541732</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H28">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I28">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J28">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,33 +2173,33 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.5664446666666666</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N28">
-        <v>1.699334</v>
+        <v>1.727297</v>
       </c>
       <c r="O28">
-        <v>0.06722903109309158</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P28">
-        <v>0.09157855736883302</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q28">
-        <v>4.812248791896</v>
+        <v>20.376181698587</v>
       </c>
       <c r="R28">
-        <v>43.310239127064</v>
+        <v>183.385635287283</v>
       </c>
       <c r="S28">
-        <v>0.01618790605066428</v>
+        <v>0.02440564696382721</v>
       </c>
       <c r="T28">
-        <v>0.02520526126631211</v>
+        <v>0.03986602819131507</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H29">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I29">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J29">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.7207635</v>
+        <v>9.042617</v>
       </c>
       <c r="N29">
-        <v>13.441527</v>
+        <v>18.085234</v>
       </c>
       <c r="O29">
-        <v>0.797660292168841</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P29">
-        <v>0.7243753443962271</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q29">
-        <v>57.09646137868201</v>
+        <v>320.015620398921</v>
       </c>
       <c r="R29">
-        <v>342.578768272092</v>
+        <v>1920.093722393526</v>
       </c>
       <c r="S29">
-        <v>0.1920665768943604</v>
+        <v>0.3832998924871096</v>
       </c>
       <c r="T29">
-        <v>0.1993705768572796</v>
+        <v>0.4174073413492467</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H30">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I30">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J30">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>0.08863199999999999</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N30">
-        <v>0.265896</v>
+        <v>0.218831</v>
       </c>
       <c r="O30">
-        <v>0.01051937432637061</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P30">
-        <v>0.01432936202661938</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q30">
-        <v>0.752975992224</v>
+        <v>2.581455428501</v>
       </c>
       <c r="R30">
-        <v>6.776783930015999</v>
+        <v>23.233098856509</v>
       </c>
       <c r="S30">
-        <v>0.002532933176907794</v>
+        <v>0.003091947783583988</v>
       </c>
       <c r="T30">
-        <v>0.003943885163050538</v>
+        <v>0.005050621181611308</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.495532000000001</v>
+        <v>35.389713</v>
       </c>
       <c r="H31">
-        <v>25.486596</v>
+        <v>106.169139</v>
       </c>
       <c r="I31">
-        <v>0.2407874364312792</v>
+        <v>0.4382630506626701</v>
       </c>
       <c r="J31">
-        <v>0.275231036505607</v>
+        <v>0.5052421883817986</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8891996666666667</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N31">
-        <v>2.667599</v>
+        <v>1.209229</v>
       </c>
       <c r="O31">
-        <v>0.105535519276905</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P31">
-        <v>0.1437591833380263</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q31">
-        <v>7.554224222556001</v>
+        <v>14.264755753759</v>
       </c>
       <c r="R31">
-        <v>67.988018003004</v>
+        <v>128.382801783831</v>
       </c>
       <c r="S31">
-        <v>0.0254116271391298</v>
+        <v>0.01708566394338774</v>
       </c>
       <c r="T31">
-        <v>0.03956698903732457</v>
+        <v>0.02790901472286222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H32">
+        <v>15.949276</v>
+      </c>
+      <c r="I32">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J32">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.08432099999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.168642</v>
+      </c>
+      <c r="O32">
+        <v>0.008155403471034732</v>
+      </c>
+      <c r="P32">
+        <v>0.007703748342576289</v>
+      </c>
+      <c r="Q32">
+        <v>0.448286300532</v>
+      </c>
+      <c r="R32">
+        <v>2.689717803191999</v>
+      </c>
+      <c r="S32">
+        <v>0.0005369365738558773</v>
+      </c>
+      <c r="T32">
+        <v>0.0005847151855746803</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H33">
+        <v>15.949276</v>
+      </c>
+      <c r="I33">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J33">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.481669</v>
+      </c>
+      <c r="O33">
+        <v>0.01552877311895348</v>
+      </c>
+      <c r="P33">
+        <v>0.02200315912062463</v>
+      </c>
+      <c r="Q33">
+        <v>0.8535857579604443</v>
+      </c>
+      <c r="R33">
+        <v>7.682271821644</v>
+      </c>
+      <c r="S33">
+        <v>0.001022385497454516</v>
+      </c>
+      <c r="T33">
+        <v>0.001670041737648811</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H34">
+        <v>15.949276</v>
+      </c>
+      <c r="I34">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J34">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.5757656666666666</v>
+      </c>
+      <c r="N34">
+        <v>1.727297</v>
+      </c>
+      <c r="O34">
+        <v>0.05568721097278211</v>
+      </c>
+      <c r="P34">
+        <v>0.07890478884789671</v>
+      </c>
+      <c r="Q34">
+        <v>3.061015176330222</v>
+      </c>
+      <c r="R34">
+        <v>27.549136586972</v>
+      </c>
+      <c r="S34">
+        <v>0.003666342244563574</v>
+      </c>
+      <c r="T34">
+        <v>0.005988880503656199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H35">
+        <v>15.949276</v>
+      </c>
+      <c r="I35">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J35">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>9.042617</v>
+      </c>
+      <c r="N35">
+        <v>18.085234</v>
+      </c>
+      <c r="O35">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P35">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q35">
+        <v>48.07439809843066</v>
+      </c>
+      <c r="R35">
+        <v>288.446388590584</v>
+      </c>
+      <c r="S35">
+        <v>0.05758128806194082</v>
+      </c>
+      <c r="T35">
+        <v>0.06270508505871324</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H36">
+        <v>15.949276</v>
+      </c>
+      <c r="I36">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J36">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.218831</v>
+      </c>
+      <c r="O36">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P36">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q36">
+        <v>0.3877995573728889</v>
+      </c>
+      <c r="R36">
+        <v>3.490196016356</v>
+      </c>
+      <c r="S36">
+        <v>0.0004644883536068734</v>
+      </c>
+      <c r="T36">
+        <v>0.0007587303801810513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>5.316425333333333</v>
+      </c>
+      <c r="H37">
+        <v>15.949276</v>
+      </c>
+      <c r="I37">
+        <v>0.06583813734818843</v>
+      </c>
+      <c r="J37">
+        <v>0.07590008909599709</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N37">
+        <v>1.209229</v>
+      </c>
+      <c r="O37">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P37">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q37">
+        <v>2.142925229800444</v>
+      </c>
+      <c r="R37">
+        <v>19.286327068204</v>
+      </c>
+      <c r="S37">
+        <v>0.002566696616766756</v>
+      </c>
+      <c r="T37">
+        <v>0.004192636230223107</v>
       </c>
     </row>
   </sheetData>
